--- a/Soundcloud-tests.xlsx
+++ b/Soundcloud-tests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeyborodin/Documents/QATest/Homework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeyborodin/Documents/First_Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC9BC34-F009-9D42-A160-39DC39C8CD2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368AB0D1-0E79-094E-8C74-9EC30E071655}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" tabRatio="532" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
   <si>
     <t>passed</t>
   </si>
@@ -91,21 +91,6 @@
     <t>Ожидаемый результат</t>
   </si>
   <si>
-    <t xml:space="preserve">Авторизация </t>
-  </si>
-  <si>
-    <t>Авторизация почты mail.ru</t>
-  </si>
-  <si>
-    <t>Загружена страница пользователя.Наличие пары данных для входа.</t>
-  </si>
-  <si>
-    <t>Негативная Авторизация почты mail.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Загружена страница пользователя.Наличие пары данных для входа.                       </t>
-  </si>
-  <si>
     <t>Total Automation Test</t>
   </si>
   <si>
@@ -302,40 +287,6 @@
   </si>
   <si>
     <t>Opera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Заполнить поле эмейл .Логин из предусловия.      2.Заполнить поле «пароль»Пароль из предусловия.  3.Нажать кнопку «войти»   </t>
-  </si>
-  <si>
-    <t>1.Поле заполнилось символами .                         2.Появились зашифрованные символы .   3.Открылась страница пользователя</t>
-  </si>
-  <si>
-    <r>
-      <t>1.Заполнить поле эмейл .Логин из предусловия.     2.Заполнить поле «пароль»неверным паролем.  3.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="TimesNewRomanPSMT"/>
-        <family val="1"/>
-      </rPr>
-      <t>Нажать кнопку «войти»</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="TimesNewRomanPS-ItalicMT"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-  </si>
-  <si>
-    <t>1.Поле заполнилось символами .                         2.Появились зашифрованные символы .   3.Отобразилась ошибка при входе</t>
   </si>
   <si>
     <t>1.Нажать на кнопку "create account"                                                   2.Нажать на кнопку "Сontinue with Facebook"                                3.Ввести пару данных для входа FB,из предусловия.             4.Нажать на кнопку"Log in"</t>
@@ -522,7 +473,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -604,59 +555,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="TimesNewRomanPS-ItalicMT"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="TimesNewRomanPSMT"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Verdana"/>
@@ -679,7 +577,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,12 +600,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="31"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
@@ -802,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -860,26 +752,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -895,10 +767,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -907,13 +779,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -936,11 +805,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1428,22 +1297,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
     </row>
   </sheetData>
@@ -1470,14 +1339,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DR51"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="7" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="3.5" customWidth="1"/>
@@ -1502,7 +1371,7 @@
     <col min="21" max="21" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1517,27 +1386,27 @@
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="6">
-        <f>COUNTIF(L$8:L$35,"failed")</f>
+        <f>COUNTIF(L$8:L$33,"failed")</f>
         <v>0</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="6">
-        <f>COUNTIF(N$8:N$44,"failed")</f>
+        <f>COUNTIF(N$8:N$42,"failed")</f>
         <v>0</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="6">
-        <f>COUNTIF(P$8:P$44,"failed")</f>
+        <f>COUNTIF(P$8:P$42,"failed")</f>
         <v>0</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="6">
-        <f>COUNTIF(R$8:R$44,"failed")</f>
+        <f>COUNTIF(R$8:R$42,"failed")</f>
         <v>0</v>
       </c>
       <c r="S1" s="5"/>
       <c r="T1" s="6">
-        <f>COUNTIF(T$8:T$44,"failed")</f>
+        <f>COUNTIF(T$8:T$42,"failed")</f>
         <v>0</v>
       </c>
       <c r="U1" s="5"/>
@@ -1547,7 +1416,7 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:122">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1562,27 +1431,27 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="8">
-        <f>COUNTIF(L$8:L$35,"passed")</f>
+        <f>COUNTIF(L$8:L$33,"passed")</f>
         <v>0</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="8">
-        <f>COUNTIF(N$8:N$35,"passed")</f>
+        <f>COUNTIF(N$8:N$33,"passed")</f>
         <v>0</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="8">
-        <f>COUNTIF(P$8:P$35,"passed")</f>
+        <f>COUNTIF(P$8:P$33,"passed")</f>
         <v>0</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="8">
-        <f>COUNTIF(R$8:R$35,"passed")</f>
+        <f>COUNTIF(R$8:R$33,"passed")</f>
         <v>0</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="8">
-        <f>COUNTIF(T$8:T$35,"passed")</f>
+        <f>COUNTIF(T$8:T$33,"passed")</f>
         <v>0</v>
       </c>
       <c r="U2" s="5"/>
@@ -1592,7 +1461,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:122">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1622,7 +1491,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:122">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1648,7 +1517,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:122" ht="26" customHeight="1">
+    <row r="5" spans="1:26" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1663,11 +1532,11 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="11" t="s">
@@ -1679,7 +1548,7 @@
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="7"/>
@@ -1688,45 +1557,45 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:122" ht="27" customHeight="1">
+    <row r="6" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="48" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="45" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="56" t="s">
+      <c r="N6" s="45" t="s">
         <v>17</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="56"/>
+      <c r="P6" s="45"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="56"/>
+      <c r="R6" s="45"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="56"/>
+      <c r="T6" s="45"/>
       <c r="U6" s="5"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -1734,11 +1603,11 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:122" ht="127" customHeight="1">
+    <row r="7" spans="1:26" ht="127" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="12" t="s">
         <v>18</v>
       </c>
@@ -1748,19 +1617,19 @@
       <c r="G7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="56"/>
+      <c r="L7" s="45"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="56"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="56"/>
+      <c r="P7" s="45"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="56"/>
+      <c r="R7" s="45"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="56"/>
+      <c r="T7" s="45"/>
       <c r="U7" s="5"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
@@ -1768,161 +1637,65 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:122" ht="58" customHeight="1">
+    <row r="8" spans="1:26" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="21">
+      <c r="B8" s="44">
         <v>1</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="25"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="25"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="25"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="25"/>
+      <c r="R8" s="19"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="25"/>
+      <c r="T8" s="19"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="25"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="5"/>
-      <c r="AZ8" s="25"/>
-      <c r="BA8" s="5"/>
-      <c r="BB8" s="25"/>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="25"/>
-      <c r="BE8" s="5"/>
-      <c r="BF8" s="25"/>
-      <c r="BG8" s="5"/>
-      <c r="BH8" s="25"/>
-      <c r="BI8" s="5"/>
-      <c r="BJ8" s="25"/>
-      <c r="BK8" s="5"/>
-      <c r="BL8" s="25"/>
-      <c r="BM8" s="5"/>
-      <c r="BN8" s="25"/>
-      <c r="BO8" s="5"/>
-      <c r="BP8" s="25"/>
-      <c r="BQ8" s="5"/>
-      <c r="BR8" s="25"/>
-      <c r="BS8" s="5"/>
-      <c r="BT8" s="25"/>
-      <c r="BU8" s="5"/>
-      <c r="BV8" s="25"/>
-      <c r="BW8" s="5"/>
-      <c r="BX8" s="26"/>
-      <c r="BY8" s="5"/>
-      <c r="BZ8" s="25"/>
-      <c r="CA8" s="5"/>
-      <c r="CB8" s="27"/>
-      <c r="CC8" s="5"/>
-      <c r="CD8" s="25"/>
-      <c r="CE8" s="5"/>
-      <c r="CF8" s="26"/>
-      <c r="CG8" s="5"/>
-      <c r="CH8" s="25"/>
-      <c r="CI8" s="5"/>
-      <c r="CJ8" s="25"/>
-      <c r="CK8" s="5"/>
-      <c r="CL8" s="25"/>
-      <c r="CM8" s="5"/>
-      <c r="CN8" s="25"/>
-      <c r="CO8" s="5"/>
-      <c r="CP8" s="25"/>
-      <c r="CQ8" s="5"/>
-      <c r="CR8" s="25"/>
-      <c r="CS8" s="5"/>
-      <c r="CT8" s="25"/>
-      <c r="CU8" s="5"/>
-      <c r="CV8" s="25"/>
-      <c r="CW8" s="18"/>
-      <c r="CX8" s="25"/>
-      <c r="CY8" s="18"/>
-      <c r="CZ8" s="25"/>
-      <c r="DA8" s="18"/>
-      <c r="DB8" s="25"/>
-      <c r="DC8" s="18"/>
-      <c r="DD8" s="25"/>
-      <c r="DE8" s="18"/>
-      <c r="DF8" s="25"/>
-      <c r="DG8" s="18"/>
-      <c r="DH8" s="25"/>
-      <c r="DI8" s="25"/>
-      <c r="DJ8" s="25"/>
-      <c r="DK8" s="25"/>
-      <c r="DL8" s="28"/>
-      <c r="DM8" s="25"/>
-      <c r="DN8" s="29"/>
-      <c r="DO8" s="29"/>
-      <c r="DP8" s="29"/>
-      <c r="DQ8" s="29"/>
-      <c r="DR8" s="29"/>
-    </row>
-    <row r="9" spans="1:122" ht="56" customHeight="1">
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" ht="196" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="14">
         <v>2</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>95</v>
+        <v>27</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="16"/>
@@ -1944,25 +1717,25 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" spans="1:122" ht="112" customHeight="1">
+    <row r="10" spans="1:26" ht="312" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="55">
+      <c r="B10" s="14">
         <v>3</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>33</v>
-      </c>
       <c r="F10" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="16"/>
@@ -1984,31 +1757,31 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:122" ht="196" customHeight="1">
+    <row r="11" spans="1:26" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="14">
         <v>4</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="F11" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="16"/>
       <c r="J11" s="17"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="5"/>
       <c r="N11" s="19"/>
       <c r="O11" s="5"/>
@@ -2024,31 +1797,31 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:122" ht="312" customHeight="1">
+    <row r="12" spans="1:26" ht="190" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="14">
         <v>5</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="16"/>
       <c r="J12" s="17"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
+      <c r="L12" s="41"/>
       <c r="M12" s="5"/>
       <c r="N12" s="19"/>
       <c r="O12" s="5"/>
@@ -2064,31 +1837,31 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:122" ht="141" customHeight="1">
+    <row r="13" spans="1:26" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="14">
+      <c r="B13" s="31">
         <v>6</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="16"/>
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="51"/>
+      <c r="L13" s="41"/>
       <c r="M13" s="5"/>
       <c r="N13" s="19"/>
       <c r="O13" s="5"/>
@@ -2104,31 +1877,31 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:122" ht="190" customHeight="1">
+    <row r="14" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="14">
         <v>7</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="16"/>
       <c r="J14" s="17"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="52"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="5"/>
       <c r="N14" s="19"/>
       <c r="O14" s="5"/>
@@ -2144,31 +1917,31 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:122" ht="86" customHeight="1">
+    <row r="15" spans="1:26" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="42">
-        <v>14</v>
+      <c r="B15" s="14">
+        <v>8</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="16"/>
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="52"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="5"/>
       <c r="N15" s="19"/>
       <c r="O15" s="5"/>
@@ -2184,25 +1957,25 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:122" ht="63" customHeight="1">
+    <row r="16" spans="1:26" ht="161" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="16"/>
@@ -2224,25 +1997,25 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="1:26" ht="55" customHeight="1">
+    <row r="17" spans="1:26" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="14">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="16"/>
@@ -2264,25 +2037,25 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
     </row>
-    <row r="18" spans="1:26" ht="161" customHeight="1">
+    <row r="18" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="14">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="16"/>
@@ -2304,25 +2077,25 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" spans="1:26" ht="115" customHeight="1">
+    <row r="19" spans="1:26" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="14">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="16"/>
@@ -2344,25 +2117,25 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="1:26" ht="39" customHeight="1">
+    <row r="20" spans="1:26" ht="188" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="14">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="32" t="s">
-        <v>50</v>
+      <c r="D20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="16"/>
@@ -2384,29 +2157,29 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="1:26" ht="180" customHeight="1">
+    <row r="21" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="14">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="18"/>
       <c r="L21" s="19"/>
       <c r="M21" s="5"/>
@@ -2424,25 +2197,25 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" ht="188" customHeight="1">
+    <row r="22" spans="1:26" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="14">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="F22" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="16"/>
@@ -2464,31 +2237,31 @@
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
     </row>
-    <row r="23" spans="1:26" ht="63" customHeight="1">
+    <row r="23" spans="1:26" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="14">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="20"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="19"/>
+      <c r="L23" s="41"/>
       <c r="M23" s="5"/>
       <c r="N23" s="19"/>
       <c r="O23" s="5"/>
@@ -2504,25 +2277,25 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:26" ht="160" customHeight="1">
+    <row r="24" spans="1:26" ht="200" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="14">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="16"/>
@@ -2544,31 +2317,31 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:26" ht="138" customHeight="1">
+    <row r="25" spans="1:26" ht="167" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="14">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>66</v>
-      </c>
       <c r="F25" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="16"/>
       <c r="J25" s="17"/>
       <c r="K25" s="18"/>
-      <c r="L25" s="52"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="5"/>
       <c r="N25" s="19"/>
       <c r="O25" s="5"/>
@@ -2584,31 +2357,30 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:26" ht="200" customHeight="1">
+    <row r="26" spans="1:26" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="14">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="E26" s="15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="16"/>
       <c r="J26" s="17"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="19"/>
       <c r="M26" s="5"/>
       <c r="N26" s="19"/>
       <c r="O26" s="5"/>
@@ -2624,31 +2396,31 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:26" ht="167" customHeight="1">
+    <row r="27" spans="1:26" ht="127" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="14">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="16"/>
       <c r="J27" s="17"/>
       <c r="K27" s="18"/>
-      <c r="L27" s="19"/>
+      <c r="L27" s="41"/>
       <c r="M27" s="5"/>
       <c r="N27" s="19"/>
       <c r="O27" s="5"/>
@@ -2664,30 +2436,31 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="1:26" ht="64" customHeight="1">
+    <row r="28" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="14">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="16"/>
       <c r="J28" s="17"/>
       <c r="K28" s="18"/>
+      <c r="L28" s="41"/>
       <c r="M28" s="5"/>
       <c r="N28" s="19"/>
       <c r="O28" s="5"/>
@@ -2703,31 +2476,31 @@
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="1:26" ht="127" customHeight="1">
+    <row r="29" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="14">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>134</v>
+        <v>67</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="16"/>
       <c r="J29" s="17"/>
       <c r="K29" s="18"/>
-      <c r="L29" s="52"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="5"/>
       <c r="N29" s="19"/>
       <c r="O29" s="5"/>
@@ -2743,39 +2516,39 @@
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
     </row>
-    <row r="30" spans="1:26" ht="120" customHeight="1">
+    <row r="30" spans="1:26" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="14">
-        <v>30</v>
-      </c>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="23">
+        <v>23</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="52"/>
+      <c r="E30" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="42"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="19"/>
+      <c r="N30" s="33"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="19"/>
+      <c r="P30" s="33"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="19"/>
+      <c r="R30" s="33"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="19"/>
+      <c r="T30" s="33"/>
       <c r="U30" s="5"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
@@ -2783,518 +2556,494 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26" ht="100" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="14">
-        <v>31</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="14" t="s">
+    <row r="31" spans="1:26" ht="148" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="34"/>
+      <c r="B31" s="35">
+        <v>24</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="5"/>
+      <c r="E31" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="38"/>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:26" ht="64" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="33">
-        <v>32</v>
-      </c>
-      <c r="C32" s="33" t="s">
+    <row r="32" spans="1:26" ht="152" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="34"/>
+      <c r="B32" s="35">
+        <v>25</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="5"/>
+      <c r="F32" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="38"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="1:26" ht="148" customHeight="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46">
-        <v>33</v>
-      </c>
-      <c r="C33" s="46" t="s">
+    <row r="33" spans="1:26" ht="146" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="34"/>
+      <c r="B33" s="35">
+        <v>26</v>
+      </c>
+      <c r="C33" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="46" t="s">
+      <c r="D33" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="49"/>
+      <c r="E33" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="38"/>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="1:26" ht="152" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46">
-        <v>34</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="49"/>
+    <row r="34" spans="1:26" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="34"/>
+      <c r="B34" s="35">
+        <v>27</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="38"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
     </row>
-    <row r="35" spans="1:26" ht="146" customHeight="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="46">
-        <v>35</v>
-      </c>
-      <c r="C35" s="46" t="s">
+    <row r="35" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="34"/>
+      <c r="B35" s="35">
+        <v>28</v>
+      </c>
+      <c r="C35" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="46" t="s">
+      <c r="D35" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="49"/>
+      <c r="E35" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="38"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
     </row>
-    <row r="36" spans="1:26" ht="95" customHeight="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46">
-        <v>36</v>
-      </c>
-      <c r="C36" s="46" t="s">
+    <row r="36" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="34"/>
+      <c r="B36" s="35">
+        <v>29</v>
+      </c>
+      <c r="C36" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="49"/>
+      <c r="D36" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="38"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
     </row>
-    <row r="37" spans="1:26" ht="90" customHeight="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="46">
-        <v>37</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="49"/>
+    <row r="37" spans="1:26" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="34"/>
+      <c r="B37" s="35">
+        <v>30</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="38"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
     </row>
-    <row r="38" spans="1:26" ht="93" customHeight="1">
-      <c r="A38" s="45"/>
-      <c r="B38" s="46">
-        <v>38</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="49"/>
+    <row r="38" spans="1:26" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="34"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="38"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
     </row>
-    <row r="39" spans="1:26" ht="44" customHeight="1">
-      <c r="A39" s="45"/>
-      <c r="B39" s="46">
-        <v>39</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="49"/>
+    <row r="39" spans="1:26" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="34"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="38"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
     </row>
-    <row r="40" spans="1:26" ht="94" customHeight="1">
-      <c r="A40" s="45"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="49"/>
+    <row r="40" spans="1:26" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="38"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
     </row>
-    <row r="41" spans="1:26" ht="97" customHeight="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="49"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="49"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
+    <row r="41" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="27">
+        <f>COUNT(J8:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
     </row>
-    <row r="42" spans="1:26" ht="91" customHeight="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
+    <row r="42" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="27">
+        <f>COUNTA(D8:D33)</f>
+        <v>26</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
     </row>
-    <row r="43" spans="1:26" ht="45" customHeight="1">
-      <c r="A43" s="36"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="37">
-        <f>COUNT(J8:J35)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A43" s="29"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
     </row>
-    <row r="44" spans="1:26" ht="30">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="37">
-        <f>COUNTA(D8:D35)</f>
-        <v>28</v>
-      </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44" s="29"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
     </row>
-    <row r="45" spans="1:26">
-      <c r="A45" s="39"/>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" s="29"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -3321,27 +3070,8 @@
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
     </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="39"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" s="29"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
@@ -3349,27 +3079,8 @@
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
     </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="39"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" s="29"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
@@ -3377,29 +3088,11 @@
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
     </row>
-    <row r="48" spans="1:26">
-      <c r="A48" s="39"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="Z48" s="7"/>
     </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="39"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
+    <row r="49" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z49" s="7"/>
-    </row>
-    <row r="50" spans="1:26">
-      <c r="Z50" s="7"/>
-    </row>
-    <row r="51" spans="1:26">
-      <c r="Z51" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3418,7 +3111,7 @@
     <mergeCell ref="R6:R7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" sqref="V8 X8 Z8 AB8 AD8 AF8 AH8 AJ8 AL8 AN8 AP8 AR8 AT8 AV8 AX8 AZ8 BB8 BD8 BF8 BH8 BJ8 BL8 BN8 BP8 BR8 BT8 BV8 BX8 BZ8 CD8 CF8 CH8 CJ8 CL8 CN8 CP8 CR8 CT8 CV8 CX8 CZ8 DB8 DD8 DF8 DH8:DR8 N8:N35 P8:P35 R8:R35 T8:T35 L8:L27 L29:L39" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" sqref="L27:L37 L8:L25 T8:T33 R8:R33 P8:P33 N8:N33" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Result</formula1>
       <formula2>0</formula2>
     </dataValidation>
